--- a/结果/CHB-MIT数据集/KNN分类/标准差/KNN_chb01_biaozhuncha.xlsx
+++ b/结果/CHB-MIT数据集/KNN分类/标准差/KNN_chb01_biaozhuncha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\CHB-MIT数据集\KNN分类\标准差\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A0F626-7851-47C5-8573-42DEA4E0A46E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EB41E7-E13D-49D7-A52A-AB308B7D236D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8256" yWindow="408" windowWidth="15828" windowHeight="12300" activeTab="6" xr2:uid="{624618C4-8DE1-4DE2-840A-D233CFC360F0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{624618C4-8DE1-4DE2-840A-D233CFC360F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Origin" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,6 +66,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -94,8 +103,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -412,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE4AFF1-594B-4177-A114-064857B1EC63}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:C33"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -594,6 +606,20 @@
       </c>
       <c r="C32">
         <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f t="shared" ref="A33:C33" si="0">AVERAGE(A2:A32)</f>
+        <v>92.986093333333343</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>91.237046666666657</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>94.712986666666666</v>
       </c>
     </row>
   </sheetData>
@@ -605,10 +631,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07068516-A6A9-4429-8A95-08EEA85FB858}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:C33"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -787,6 +813,20 @@
       </c>
       <c r="C32">
         <v>88.888900000000007</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f t="shared" ref="A33:C33" si="0">AVERAGE(A2:A32)</f>
+        <v>93.611113333333336</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>93.706306666666677</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>93.589313333333337</v>
       </c>
     </row>
   </sheetData>
@@ -797,10 +837,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C29C5E-5699-413F-BF8E-15F00C044326}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:C33"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -979,6 +1019,20 @@
       </c>
       <c r="C32">
         <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f t="shared" ref="A33:C33" si="0">AVERAGE(A2:A32)</f>
+        <v>90.972213333333329</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>85.848120000000009</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>96.006959999999992</v>
       </c>
     </row>
   </sheetData>
@@ -989,10 +1043,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81006C67-9253-4636-B478-599AF3D4CB05}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:C33"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1171,6 +1225,20 @@
       </c>
       <c r="C32">
         <v>98.076899999999995</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f t="shared" ref="A33:C33" si="0">AVERAGE(A2:A32)</f>
+        <v>97.986113333333336</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>96.907133333333348</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>99.065566666666669</v>
       </c>
     </row>
   </sheetData>
@@ -1181,10 +1249,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A36538-DF4F-44A5-9913-1C61E29FC44D}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:C33"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1363,6 +1431,20 @@
       </c>
       <c r="C32">
         <v>95.122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f t="shared" ref="A33:C33" si="0">AVERAGE(A2:A32)</f>
+        <v>94.999993333333336</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>94.33895333333335</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>95.867126666666678</v>
       </c>
     </row>
   </sheetData>
@@ -1373,10 +1455,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD4A96F1-19B3-4C7E-967D-B8D3EB3E34BA}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:C33"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1555,6 +1637,20 @@
       </c>
       <c r="C32">
         <v>97.7273</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f t="shared" ref="A33:C33" si="0">AVERAGE(A2:A32)</f>
+        <v>95.972220000000007</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>95.989819999999995</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>95.958706666666686</v>
       </c>
     </row>
   </sheetData>
@@ -1565,10 +1661,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29BB30E6-4F9B-47A2-86A9-4230A11244B3}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:C33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1749,6 +1845,20 @@
         <v>97.777799999999999</v>
       </c>
     </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f t="shared" ref="A33:C33" si="0">AVERAGE(A2:A32)</f>
+        <v>98.055546666666672</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>98.259886666666674</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>98.020380000000017</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
